--- a/silver/excel/int_delayed_events.xlsx
+++ b/silver/excel/int_delayed_events.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,35 +455,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>delay_reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>delay_minutes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>route_id</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>supplier_id</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>delivery_status</t>
+          <t>crew_flag</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>crew_flag</t>
+          <t>supplier_flag</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>delay_category</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cost_per_minute</t>
         </is>
@@ -492,441 +487,850 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL8121</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45803</v>
+        <v>45833</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>on-time</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RT4127</t>
-        </is>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>delayed</t>
-        </is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL7598</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45754</v>
+        <v>45833</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>71</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>RT0983</t>
-        </is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>on-time</t>
-        </is>
+          <t>RT9374</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
+      <c r="I3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL4736</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45828</v>
+        <v>45833</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>delayed</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>26</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>RT0983</t>
-        </is>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>crew</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>delayed</t>
-        </is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>181.5728571428571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL1294</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45819</v>
+        <v>45833</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>on-time</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RT2741</t>
-        </is>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>on-time</t>
-        </is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL2792</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45754</v>
+        <v>45833</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>on-time</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>RT4127</t>
-        </is>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>on-time</t>
-        </is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL6133</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45797</v>
+        <v>45833</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RT0983</t>
-        </is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>58</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>on-time</t>
-        </is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>25</v>
+      <c r="I7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL3865</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45757</v>
+        <v>45833</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>88</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>RT2741</t>
-        </is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>on-time</t>
-        </is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL3708</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45752</v>
+        <v>45833</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>RT8820</t>
-        </is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>delayed</t>
-        </is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL8118</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45793</v>
+        <v>45834</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>on-time</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>RT0983</t>
-        </is>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>delayed</t>
-        </is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
+      <c r="I10" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL9475</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45792</v>
+        <v>45834</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>on-time</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>RT0983</t>
-        </is>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL3108</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>RT6474</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL1344</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>RT6474</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL5675</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL7466</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>delayed</t>
         </is>
       </c>
-      <c r="H11" t="b">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>110</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL6369</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL6970</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>RT9374</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL5986</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL5388</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL5997</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>RT6259</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL8093</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>89</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>RT5358</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL5544</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5689</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>RT6565</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL4242</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>RT7502</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL7875</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>crew</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v>25</v>
+      <c r="E26" t="n">
+        <v>14</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>RT4447</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>233.4342857142857</v>
       </c>
     </row>
   </sheetData>

--- a/silver/excel/int_delayed_events.xlsx
+++ b/silver/excel/int_delayed_events.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,10 +475,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>num_crew_flagged</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>supplier_flag</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>num_supplier_flagged</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cost_per_minute</t>
         </is>
@@ -487,11 +497,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL8121</t>
+          <t>FL6954</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45833</v>
+        <v>45836</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -504,27 +514,31 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL7598</t>
+          <t>FL5223</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45833</v>
+        <v>45858</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -537,64 +551,68 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>RT9374</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL4736</t>
+          <t>FL5569</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45833</v>
+        <v>45838</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT6027</t>
         </is>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>181.5728571428571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL1294</t>
+          <t>FL6756</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45833</v>
+        <v>45843</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -607,60 +625,74 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6421</t>
         </is>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL2792</t>
+          <t>FL1724</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>weather</t>
+        </is>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT6772</t>
         </is>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL6133</t>
+          <t>FL4158</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45833</v>
+        <v>45843</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -673,31 +705,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6628</t>
         </is>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="b">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>20</v>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>97.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL3865</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45833</v>
+        <v>45848</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -710,60 +748,74 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6421</t>
         </is>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL3708</t>
+          <t>FL3703</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>crew</t>
+        </is>
+      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL8118</t>
+          <t>FL6943</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45834</v>
+        <v>45827</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -776,27 +828,31 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT6259</t>
         </is>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL9475</t>
+          <t>FL1855</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45834</v>
+        <v>45847</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -809,27 +865,31 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT7144</t>
         </is>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15</v>
-      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FL3108</t>
+          <t>FL2193</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45834</v>
+        <v>45836</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -842,60 +902,72 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RT6474</t>
+          <t>RT6628</t>
         </is>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FL1344</t>
+          <t>FL9261</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>crew</t>
+        </is>
+      </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RT6474</t>
+          <t>RT6565</t>
         </is>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FL5675</t>
+          <t>FL5690</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45834</v>
+        <v>45792</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -908,64 +980,68 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15</v>
-      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FL7466</t>
+          <t>FL3756</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45834</v>
+        <v>45837</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT7502</t>
         </is>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20</v>
-      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FL6369</t>
+          <t>FL4122</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45834</v>
+        <v>45823</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -978,27 +1054,31 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT6628</t>
         </is>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FL6970</t>
+          <t>FL9643</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45834</v>
+        <v>45797</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1011,97 +1091,111 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RT9374</t>
+          <t>RT3577</t>
         </is>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FL5986</t>
+          <t>FL7920</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45834</v>
+        <v>45843</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT6474</t>
         </is>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>122.38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FL5388</t>
+          <t>FL1111</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45835</v>
+        <v>45851</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT7144</t>
         </is>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>20</v>
-      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FL5997</t>
+          <t>FL1990</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45835</v>
+        <v>45837</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1114,97 +1208,111 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6259</t>
         </is>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FL1013</t>
+          <t>FL8469</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45835</v>
+        <v>45826</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RT6259</t>
+          <t>RT6474</t>
         </is>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>81.34999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FL8093</t>
+          <t>FL4612</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45835</v>
+        <v>45827</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RT5358</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FL5544</t>
+          <t>FL9825</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45835</v>
+        <v>45820</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1223,21 +1331,25 @@
       <c r="G23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>15</v>
-      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FL5689</t>
+          <t>FL8118</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45835</v>
+        <v>45834</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1250,88 +1362,102 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>RT6565</t>
+          <t>RT5358</t>
         </is>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FL4242</t>
+          <t>FL4565</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45835</v>
+        <v>45819</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>on-time</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>RT7502</t>
+          <t>RT5145</t>
         </is>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15</v>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>263.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FL7875</t>
+          <t>FL2007</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>delayed</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RT4447</t>
+          <t>RT6421</t>
         </is>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>233.4342857142857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
